--- a/test_data_last_semester.xlsx
+++ b/test_data_last_semester.xlsx
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
     <col min="15" max="15" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,9 +651,14 @@
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P1" s="1">
+        <v>282</v>
+      </c>
+      <c r="Q1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -679,9 +684,14 @@
       <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="1">
+        <v>361</v>
+      </c>
+      <c r="Q2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,9 +715,14 @@
       <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="1">
+        <v>533</v>
+      </c>
+      <c r="Q3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -731,9 +746,14 @@
       <c r="O4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="1">
+        <v>988</v>
+      </c>
+      <c r="Q4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -757,9 +777,14 @@
       <c r="O5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="1">
+        <v>575</v>
+      </c>
+      <c r="Q5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -783,9 +808,14 @@
       <c r="O6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="1">
+        <v>1793</v>
+      </c>
+      <c r="Q6">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -809,9 +839,14 @@
       <c r="O7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="1">
+        <v>1195</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -835,9 +870,14 @@
       <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="1">
+        <v>220</v>
+      </c>
+      <c r="Q8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -861,9 +901,14 @@
       <c r="O9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="1">
+        <v>508</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -887,9 +932,14 @@
       <c r="O10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="1">
+        <v>130</v>
+      </c>
+      <c r="Q10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -913,9 +963,14 @@
       <c r="O11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="1">
+        <v>367</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -945,9 +1000,14 @@
       <c r="O12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="1">
+        <v>430</v>
+      </c>
+      <c r="Q12">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -977,9 +1037,14 @@
       <c r="O13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="1">
+        <v>351</v>
+      </c>
+      <c r="Q13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1009,9 +1074,14 @@
       <c r="O14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="1">
+        <v>185</v>
+      </c>
+      <c r="Q14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1041,9 +1111,14 @@
       <c r="O15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="1">
+        <v>151</v>
+      </c>
+      <c r="Q15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1073,9 +1148,14 @@
       <c r="O16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" s="1">
+        <v>1008</v>
+      </c>
+      <c r="Q16">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1105,9 +1185,14 @@
       <c r="O17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="1">
+        <v>291</v>
+      </c>
+      <c r="Q17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1137,9 +1222,14 @@
       <c r="O18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="1">
+        <v>821</v>
+      </c>
+      <c r="Q18">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1169,9 +1259,14 @@
       <c r="O19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19" s="1">
+        <v>242</v>
+      </c>
+      <c r="Q19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1201,9 +1296,14 @@
       <c r="O20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -1233,9 +1333,14 @@
       <c r="O21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="1">
+        <v>516</v>
+      </c>
+      <c r="Q21">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -1265,9 +1370,14 @@
       <c r="O22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="1">
+        <v>8163</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -1297,9 +1407,14 @@
       <c r="O23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="1">
+        <v>211</v>
+      </c>
+      <c r="Q23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -1329,9 +1444,14 @@
       <c r="O24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="1">
+        <v>362</v>
+      </c>
+      <c r="Q24">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -1361,9 +1481,14 @@
       <c r="O25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="1">
+        <v>272</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1393,7 +1518,12 @@
       <c r="O26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1">
+        <v>194</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
